--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="224">
   <si>
     <t xml:space="preserve">Usability review (Español)</t>
   </si>
@@ -932,16 +932,31 @@
     <t xml:space="preserve">Las características y la funcionalidad cumplen con las metas y objetivos comunes del usuario.</t>
   </si>
   <si>
+    <t xml:space="preserve">No hemos encontrado ningún problema a la hora de unirse a un grupo, o crear uno, o de unirse a un evento</t>
+  </si>
+  <si>
     <t xml:space="preserve">Las características y la funcionalidad son compatibles con los flujos de trabajo deseados por los usuarios.</t>
   </si>
   <si>
+    <t xml:space="preserve">El flujo puede seguirse fácilmente para diversas experiencias de usuarios.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Las tareas de uso frecuente están fácilmente disponibles (por ejemplo, fácilmente accesibles desde la página de inicio) y están bien soportadas (por ejemplo, los accesos directos están disponibles).</t>
   </si>
   <si>
+    <t xml:space="preserve">La página de inicio muestra claramente tanto los grupos como los eventos que éstos crean, que son los dos ejes con los que funciona la web</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios reciben un apoyo adecuado según su nivel de experiencia (por ejemplo, atajos para usuarios expertos, ayuda e instrucciones para usuarios novatos).</t>
   </si>
   <si>
+    <t xml:space="preserve">No hay atajos para usuarios expertos, y no se aportan instrucciones para ususarios novatos, más allá del “tutorial” al crear la cuenta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Las llamadas a las acciones (por ejemplo, registrarse, agregar a la cesta, enviar) son claras, están bien etiquetadas y aparecen como cliqueables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las llamadas a acciones (como unirse a un grupo) están claramente etiquetadas</t>
   </si>
   <si>
     <t xml:space="preserve">Homepage / starting page</t>
@@ -1053,7 +1068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No te sale mensaje pero se puede intuir que se ha hecho, la respuesta es rápida.</t>
+    <t xml:space="preserve">Cuando te sales de un grupo te informa de ello y te ofrece otros grupos relacionaodos.</t>
   </si>
   <si>
     <t xml:space="preserve">Los usuarios pueden fácilmente deshacer, volver atrás y cambiar o cancelar acciones; o al menos tienen la oportunidad de confirmar una acción antes de cometer (por ejemplo, antes de realizar un pedido)</t>
@@ -1065,6 +1080,9 @@
     <t xml:space="preserve">Los usuarios pueden enviar comentarios (por ejemplo, por correo electrónico o mediante un formulario de comentarios / contacto en línea)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cada grupo tiene un chat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forms</t>
   </si>
   <si>
@@ -1122,43 +1140,76 @@
     <t xml:space="preserve">El contenido disponible (por ejemplo, texto, imágenes, video) es apropiado y suficientemente relevante, y detallado para cumplir con los objetivos del usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">Las imágenes que se refieren a las categorías son poco relevantes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los enlaces a otros contenidos útiles y relevantes (por ejemplo, páginas relacionadas o sitios web externos) están disponibles y se muestran en contexto</t>
   </si>
   <si>
+    <t xml:space="preserve">Los únicos enlaces a sitios web externos que encontramos son enlaces para descargar la app.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
   </si>
   <si>
+    <t xml:space="preserve">La web está enfocada a un público relativamente joven y con ciertos conocimientos del mundo web, y utiliza un lenguaje apropiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los términos, el idioma y el tono utilizados son consistentes (por ejemplo, el mismo término se usa en todo)</t>
   </si>
   <si>
+    <t xml:space="preserve">Se hace mucho énfasis en los conceptos centrales que usa la web, grupos y sus miembros, y eventos y sus asistentes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El texto y el contenido son legibles y escaneables, con buena tipografía y contraste visual</t>
   </si>
   <si>
+    <t xml:space="preserve">La tipogradía es fácilmente legible y los colores que se utilizan son cómodos a la vista. A la hora de imprimirla, hay campos que faltan.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Help</t>
   </si>
   <si>
     <t xml:space="preserve">Se proporciona ayuda en línea y contextual y es adecuada para la base de usuarios (por ejemplo, está escrita en un lenguaje fácil de entender y solo usa términos reconocidos). </t>
   </si>
   <si>
+    <t xml:space="preserve">Al final de la web está la opción de ayuda, que te lleva a una barra de búsqueda en la que buscar el problema que se tenga,</t>
+  </si>
+  <si>
     <t xml:space="preserve">La ayuda en línea es concisa, fácil de leer y escrita en un lenguaje fácil de entender</t>
   </si>
   <si>
+    <t xml:space="preserve">Se utiliza un lenguage fácil de comprender, y las páginas de ayuda están bien estructuradas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El acceso a la ayuda en línea no impide a los usuarios (es decir, pueden reanudar el trabajo donde lo dejaron después de acceder a la ayuda)</t>
   </si>
   <si>
+    <t xml:space="preserve">Al acudir a la pestaña de ayuda, no se da la opción de volver a dónde se estaba de forma orgánica, pero se puede volver atrás con el navegador,</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay un chat en línea en el que preguntar y ser respondido en directo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Performance</t>
   </si>
   <si>
     <t xml:space="preserve">El rendimiento del sitio o la aplicación no inhibe la experiencia del usuario (por ejemplo, descargas lentas de páginas, retrasos prolongados)</t>
   </si>
   <si>
+    <t xml:space="preserve">La web responde rápida y sin problemas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los errores y problemas de confiabilidad no inhiben la experiencia del usuario</t>
   </si>
   <si>
     <t xml:space="preserve">Se admiten posibles configuraciones de usuario (por ejemplo, navegadores, resoluciones, especificaciones de computadora)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La web permite ser usada satisfactoriamente en una variedad de pantallas, así como en el navegador del móvil.</t>
   </si>
   <si>
     <t xml:space="preserve">Overall usability score (out of 100) *</t>
@@ -3233,9 +3284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3249,7 +3300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828360"/>
-          <a:ext cx="304560" cy="304560"/>
+          <a:ext cx="304200" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3275,9 +3326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3291,7 +3342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828360"/>
-          <a:ext cx="304560" cy="304560"/>
+          <a:ext cx="304200" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3313,8 +3364,8 @@
   </sheetPr>
   <dimension ref="A1:Z127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3582,7 +3633,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="e">
@@ -3594,7 +3645,9 @@
         <v>#REF!</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="41" t="n">
         <v>5</v>
@@ -3605,15 +3658,15 @@
       </c>
       <c r="M9" s="43" t="n">
         <f aca="false">VLOOKUP(D9,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="43" t="n">
         <f aca="false">M9*L9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="43" t="n">
         <f aca="false">IF(M9=0,0,L9*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="5"/>
@@ -3653,11 +3706,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="e">
@@ -3669,7 +3722,9 @@
         <v>#REF!</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="41" t="n">
         <v>5</v>
@@ -3680,15 +3735,15 @@
       </c>
       <c r="M11" s="43" t="n">
         <f aca="false">VLOOKUP(D11,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" s="43" t="n">
         <f aca="false">M11*L11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="43" t="n">
         <f aca="false">IF(M11=0,0,L11*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P11" s="46"/>
       <c r="S11" s="8"/>
@@ -3726,11 +3781,11 @@
         <v>3</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="e">
@@ -3742,7 +3797,9 @@
         <v>#REF!</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="40"/>
+      <c r="I13" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="41" t="n">
         <v>4</v>
@@ -3753,15 +3810,15 @@
       </c>
       <c r="M13" s="43" t="n">
         <f aca="false">VLOOKUP(D13,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="43" t="n">
         <f aca="false">M13*L13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="43" t="n">
         <f aca="false">IF(M13=0,0,L13*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -3795,11 +3852,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="e">
@@ -3811,7 +3868,9 @@
         <v>#REF!</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="48" t="n">
         <v>3</v>
@@ -3822,15 +3881,15 @@
       </c>
       <c r="M15" s="43" t="n">
         <f aca="false">VLOOKUP(D15,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="43" t="n">
         <f aca="false">M15*L15</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O15" s="50" t="n">
         <f aca="false">IF(M15=0,0,L15*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" s="13"/>
       <c r="S15" s="13"/>
@@ -3861,11 +3920,11 @@
         <v>5</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="e">
@@ -3877,7 +3936,9 @@
         <v>#REF!</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="40"/>
+      <c r="I17" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="41" t="n">
         <v>3</v>
@@ -3888,15 +3949,15 @@
       </c>
       <c r="M17" s="43" t="n">
         <f aca="false">VLOOKUP(D17,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="43" t="n">
         <f aca="false">M17*L17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="43" t="n">
         <f aca="false">IF(M17=0,0,L17*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="5"/>
@@ -3921,7 +3982,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="45"/>
@@ -3959,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="39" t="s">
@@ -3976,7 +4037,7 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="41" t="n">
@@ -4025,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="39" t="s">
@@ -4042,7 +4103,7 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="41" t="n">
@@ -4092,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="39" t="s">
@@ -4103,7 +4164,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="41" t="n">
@@ -4149,7 +4210,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="54"/>
@@ -4193,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="39" t="s">
@@ -4210,7 +4271,7 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="41" t="n">
@@ -4263,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="39" t="s">
@@ -4280,7 +4341,7 @@
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="41" t="n">
@@ -4326,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="39" t="s">
@@ -4337,7 +4398,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="41" t="n">
@@ -4383,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="39" t="s">
@@ -4400,7 +4461,7 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="41" t="n">
@@ -4446,7 +4507,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="39" t="s">
@@ -4463,7 +4524,7 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="41" t="n">
@@ -4509,7 +4570,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="39" t="s">
@@ -4577,7 +4638,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="39" t="s">
@@ -4594,7 +4655,7 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="41" t="n">
@@ -4640,7 +4701,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="39" t="s">
@@ -4657,7 +4718,7 @@
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="41" t="n">
@@ -4703,7 +4764,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="39" t="s">
@@ -4720,7 +4781,7 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="41" t="n">
@@ -4761,7 +4822,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="54"/>
@@ -4799,7 +4860,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="39" t="s">
@@ -4816,7 +4877,7 @@
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="41" t="n">
@@ -4862,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="39" t="s">
@@ -4879,7 +4940,7 @@
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="41" t="n">
@@ -4925,7 +4986,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="39" t="s">
@@ -4942,7 +5003,7 @@
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="41" t="n">
@@ -4988,7 +5049,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="39" t="s">
@@ -5005,7 +5066,7 @@
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="41" t="n">
@@ -5046,7 +5107,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="54"/>
@@ -5084,11 +5145,11 @@
         <v>22</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="e">
@@ -5101,7 +5162,7 @@
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="40" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="41" t="n">
@@ -5113,11 +5174,11 @@
       </c>
       <c r="M59" s="43" t="n">
         <f aca="false">VLOOKUP(D59,Q1:R9,2,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N59" s="43" t="n">
         <f aca="false">M59*L59</f>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O59" s="43" t="n">
         <f aca="false">IF(M59=0,0,L59*MAX(R2:R8))</f>
@@ -5147,7 +5208,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="39" t="s">
@@ -5164,7 +5225,7 @@
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="41" t="n">
@@ -5210,11 +5271,11 @@
         <v>24</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="e">
@@ -5226,7 +5287,9 @@
         <v>#REF!</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="40"/>
+      <c r="I63" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="41" t="n">
         <v>1</v>
@@ -5237,11 +5300,11 @@
       </c>
       <c r="M63" s="43" t="n">
         <f aca="false">VLOOKUP(D63,Q1:R9,2,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" s="43" t="n">
         <f aca="false">M63*L63</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O63" s="43" t="n">
         <f aca="false">IF(M63=0,0,L63*MAX(R2:R8))</f>
@@ -5266,7 +5329,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="54"/>
@@ -5304,7 +5367,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="39" t="s">
@@ -5321,7 +5384,7 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="40" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="41" t="n">
@@ -5367,7 +5430,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="39" t="s">
@@ -5384,7 +5447,7 @@
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="40" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="41" t="n">
@@ -5430,7 +5493,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="39" t="s">
@@ -5447,7 +5510,7 @@
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="40" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="41" t="n">
@@ -5493,7 +5556,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="39" t="s">
@@ -5510,7 +5573,7 @@
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="41" t="n">
@@ -5556,7 +5619,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="39" t="s">
@@ -5573,7 +5636,7 @@
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="40" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="41" t="n">
@@ -5614,7 +5677,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="54"/>
@@ -5652,7 +5715,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="39" t="s">
@@ -5713,7 +5776,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="39" t="s">
@@ -5774,7 +5837,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="39" t="s">
@@ -5835,7 +5898,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="39" t="s">
@@ -5852,7 +5915,7 @@
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="41" t="n">
@@ -5893,7 +5956,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="54"/>
@@ -5931,11 +5994,11 @@
         <v>34</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="e">
@@ -5947,7 +6010,9 @@
         <v>#REF!</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="40"/>
+      <c r="I89" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="41" t="n">
         <v>5</v>
@@ -5958,15 +6023,15 @@
       </c>
       <c r="M89" s="43" t="n">
         <f aca="false">VLOOKUP(D89,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N89" s="43" t="n">
         <f aca="false">M89*L89</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O89" s="43" t="n">
         <f aca="false">IF(M89=0,0,L89*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5992,11 +6057,11 @@
         <v>35</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="e">
@@ -6008,7 +6073,9 @@
         <v>#REF!</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="40"/>
+      <c r="I91" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="41" t="n">
         <v>2</v>
@@ -6019,15 +6086,15 @@
       </c>
       <c r="M91" s="43" t="n">
         <f aca="false">VLOOKUP(D91,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91" s="43" t="n">
         <f aca="false">M91*L91</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O91" s="43" t="n">
         <f aca="false">IF(M91=0,0,L91*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6053,11 +6120,11 @@
         <v>36</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="e">
@@ -6069,7 +6136,9 @@
         <v>#REF!</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="40"/>
+      <c r="I93" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="41" t="n">
         <v>4</v>
@@ -6080,15 +6149,15 @@
       </c>
       <c r="M93" s="43" t="n">
         <f aca="false">VLOOKUP(D93,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N93" s="43" t="n">
         <f aca="false">M93*L93</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O93" s="43" t="n">
         <f aca="false">IF(M93=0,0,L93*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6114,11 +6183,11 @@
         <v>37</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="e">
@@ -6130,7 +6199,9 @@
         <v>#REF!</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="I95" s="40"/>
+      <c r="I95" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="J95" s="5"/>
       <c r="K95" s="41" t="n">
         <v>3</v>
@@ -6141,15 +6212,15 @@
       </c>
       <c r="M95" s="43" t="n">
         <f aca="false">VLOOKUP(D95,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N95" s="43" t="n">
         <f aca="false">M95*L95</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O95" s="43" t="n">
         <f aca="false">IF(M95=0,0,L95*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6175,11 +6246,11 @@
         <v>38</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="e">
@@ -6191,7 +6262,9 @@
         <v>#REF!</v>
       </c>
       <c r="H97" s="5"/>
-      <c r="I97" s="40"/>
+      <c r="I97" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="J97" s="5"/>
       <c r="K97" s="41" t="n">
         <v>3</v>
@@ -6202,15 +6275,15 @@
       </c>
       <c r="M97" s="43" t="n">
         <f aca="false">VLOOKUP(D97,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N97" s="43" t="n">
         <f aca="false">M97*L97</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O97" s="43" t="n">
         <f aca="false">IF(M97=0,0,L97*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6231,7 +6304,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="54"/>
@@ -6269,11 +6342,11 @@
         <v>39</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="e">
@@ -6285,7 +6358,9 @@
         <v>#REF!</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="I101" s="40"/>
+      <c r="I101" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="41" t="n">
         <v>4</v>
@@ -6296,15 +6371,15 @@
       </c>
       <c r="M101" s="43" t="n">
         <f aca="false">VLOOKUP(D101,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N101" s="43" t="n">
         <f aca="false">M101*L101</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O101" s="43" t="n">
         <f aca="false">IF(M101=0,0,L101*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6330,11 +6405,11 @@
         <v>40</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="e">
@@ -6346,7 +6421,9 @@
         <v>#REF!</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="I103" s="40"/>
+      <c r="I103" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="41" t="n">
         <v>3</v>
@@ -6357,15 +6434,15 @@
       </c>
       <c r="M103" s="43" t="n">
         <f aca="false">VLOOKUP(D103,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N103" s="43" t="n">
         <f aca="false">M103*L103</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O103" s="43" t="n">
         <f aca="false">IF(M103=0,0,L103*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6391,11 +6468,11 @@
         <v>41</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="e">
@@ -6407,7 +6484,9 @@
         <v>#REF!</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="40"/>
+      <c r="I105" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="J105" s="5"/>
       <c r="K105" s="41" t="n">
         <v>3</v>
@@ -6418,15 +6497,15 @@
       </c>
       <c r="M105" s="43" t="n">
         <f aca="false">VLOOKUP(D105,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N105" s="43" t="n">
         <f aca="false">M105*L105</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O105" s="43" t="n">
         <f aca="false">IF(M105=0,0,L105*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6452,11 +6531,11 @@
         <v>42</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="e">
@@ -6468,7 +6547,9 @@
         <v>#REF!</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="40"/>
+      <c r="I107" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="41" t="n">
         <v>2</v>
@@ -6479,15 +6560,15 @@
       </c>
       <c r="M107" s="43" t="n">
         <f aca="false">VLOOKUP(D107,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N107" s="43" t="n">
         <f aca="false">M107*L107</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O107" s="43" t="n">
         <f aca="false">IF(M107=0,0,L107*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6508,7 +6589,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="54"/>
@@ -6546,11 +6627,11 @@
         <v>43</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="19" t="e">
@@ -6562,7 +6643,9 @@
         <v>#REF!</v>
       </c>
       <c r="H111" s="19"/>
-      <c r="I111" s="40"/>
+      <c r="I111" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="J111" s="19"/>
       <c r="K111" s="28" t="n">
         <v>4</v>
@@ -6573,15 +6656,15 @@
       </c>
       <c r="M111" s="57" t="n">
         <f aca="false">VLOOKUP(D111,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N111" s="57" t="n">
         <f aca="false">M111*L111</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O111" s="57" t="n">
         <f aca="false">IF(M111=0,0,L111*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P111" s="19"/>
       <c r="Q111" s="19"/>
@@ -6629,11 +6712,11 @@
         <v>44</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="59" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19" t="e">
@@ -6712,11 +6795,11 @@
         <v>45</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19" t="e">
@@ -6728,7 +6811,9 @@
         <v>#REF!</v>
       </c>
       <c r="H115" s="19"/>
-      <c r="I115" s="40"/>
+      <c r="I115" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="J115" s="19"/>
       <c r="K115" s="28" t="n">
         <v>3</v>
@@ -6739,15 +6824,15 @@
       </c>
       <c r="M115" s="57" t="n">
         <f aca="false">VLOOKUP(D115,Q1:R9,2,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N115" s="57" t="n">
         <f aca="false">M115*L115</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O115" s="57" t="n">
         <f aca="false">IF(M115=0,0,L115*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115" s="19"/>
       <c r="Q115" s="19"/>
@@ -6779,13 +6864,13 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="63" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B117" s="64"/>
       <c r="C117" s="65"/>
       <c r="D117" s="66" t="n">
         <f aca="false">IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>76.5432098765432</v>
+        <v>78.3941605839416</v>
       </c>
       <c r="E117" s="67"/>
       <c r="F117" s="67"/>
@@ -6800,7 +6885,7 @@
       </c>
       <c r="J117" s="6" t="n">
         <f aca="false">IF(D117="",0,D117)</f>
-        <v>76.5432098765432</v>
+        <v>78.3941605839416</v>
       </c>
       <c r="K117" s="61" t="n">
         <f aca="false">MAX(K9:K115)</f>
@@ -6810,11 +6895,11 @@
       <c r="M117" s="61"/>
       <c r="N117" s="62" t="n">
         <f aca="false">SUM(N9:N115)</f>
-        <v>62</v>
+        <v>107.4</v>
       </c>
       <c r="O117" s="62" t="n">
         <f aca="false">SUM(O9:O115)</f>
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6933,10 +7018,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="74" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C125" s="75" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D125" s="76"/>
       <c r="E125" s="5"/>
@@ -6953,7 +7038,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="77"/>
       <c r="C126" s="78" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D126" s="79"/>
       <c r="E126" s="79"/>
@@ -7921,7 +8006,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7978,7 +8063,7 @@
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -8162,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="39" t="s">
@@ -8237,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="39" t="s">
@@ -8310,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="39" t="s">
@@ -8379,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="39" t="s">
@@ -8445,7 +8530,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="39" t="s">
@@ -8505,7 +8590,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="45"/>
@@ -8543,7 +8628,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="39" t="s">
@@ -8607,7 +8692,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="39" t="s">
@@ -8672,7 +8757,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="39" t="s">
@@ -8727,7 +8812,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="54"/>
@@ -8771,7 +8856,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="39" t="s">
@@ -8839,7 +8924,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="39" t="s">
@@ -8900,7 +8985,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="39" t="s">
@@ -8955,7 +9040,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="39" t="s">
@@ -9016,7 +9101,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="39" t="s">
@@ -9077,7 +9162,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="39" t="s">
@@ -9145,7 +9230,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="39" t="s">
@@ -9206,7 +9291,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="39" t="s">
@@ -9267,7 +9352,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="39" t="s">
@@ -9323,7 +9408,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="54"/>
@@ -9361,7 +9446,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="39" t="s">
@@ -9422,7 +9507,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="39" t="s">
@@ -9483,7 +9568,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="39" t="s">
@@ -9544,7 +9629,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="39" t="s">
@@ -9600,7 +9685,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="54"/>
@@ -9638,7 +9723,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="39" t="s">
@@ -9699,7 +9784,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="39" t="s">
@@ -9760,7 +9845,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="39" t="s">
@@ -9816,7 +9901,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="54"/>
@@ -9854,7 +9939,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="39" t="s">
@@ -9915,7 +10000,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="39" t="s">
@@ -9976,7 +10061,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="39" t="s">
@@ -10037,7 +10122,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="39" t="s">
@@ -10098,7 +10183,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="39" t="s">
@@ -10154,7 +10239,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="54"/>
@@ -10192,7 +10277,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="39" t="s">
@@ -10253,7 +10338,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="39" t="s">
@@ -10314,7 +10399,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="39" t="s">
@@ -10375,7 +10460,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="39" t="s">
@@ -10431,7 +10516,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="54"/>
@@ -10469,7 +10554,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="39" t="s">
@@ -10530,7 +10615,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
@@ -10591,7 +10676,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="39" t="s">
@@ -10652,7 +10737,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
@@ -10713,7 +10798,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="39" t="s">
@@ -10769,7 +10854,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="54"/>
@@ -10807,7 +10892,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="39" t="s">
@@ -10868,7 +10953,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="39" t="s">
@@ -10929,7 +11014,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="39" t="s">
@@ -10990,7 +11075,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="39" t="s">
@@ -11046,7 +11131,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="54"/>
@@ -11084,7 +11169,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="44" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="39" t="s">
@@ -11167,7 +11252,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="39" t="s">
@@ -11250,7 +11335,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="39" t="s">
@@ -11317,7 +11402,7 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="63" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B117" s="64"/>
       <c r="C117" s="65"/>
@@ -12438,7 +12523,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12446,7 +12531,7 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="60"/>
       <c r="C2" s="31" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12484,10 +12569,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12496,10 +12581,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12508,10 +12593,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12520,10 +12605,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12532,10 +12617,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12544,7 +12629,7 @@
     </row>
     <row r="10" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="83" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -12578,10 +12663,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12590,10 +12675,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12602,10 +12687,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12614,7 +12699,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -12648,10 +12733,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12660,10 +12745,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12672,10 +12757,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12684,10 +12769,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12696,10 +12781,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12708,10 +12793,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C21" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12720,10 +12805,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C22" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12732,10 +12817,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C23" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12744,10 +12829,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12756,7 +12841,7 @@
     </row>
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="83" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -12790,10 +12875,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C27" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12802,10 +12887,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C28" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12814,10 +12899,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12826,10 +12911,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12838,7 +12923,7 @@
     </row>
     <row r="32" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="83" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -12872,10 +12957,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C33" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12884,10 +12969,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12896,10 +12981,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C35" s="86" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12908,7 +12993,7 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="83" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -12942,10 +13027,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12954,10 +13039,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12966,10 +13051,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12978,10 +13063,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C41" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12990,10 +13075,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13002,7 +13087,7 @@
     </row>
     <row r="44" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="83" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -13036,10 +13121,10 @@
         <v>30</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C45" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13048,10 +13133,10 @@
         <v>31</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C46" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13060,10 +13145,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C47" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13072,10 +13157,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C48" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13084,7 +13169,7 @@
     </row>
     <row r="50" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="83" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -13118,10 +13203,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C51" s="86" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13130,10 +13215,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C52" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13142,10 +13227,10 @@
         <v>36</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C53" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13154,10 +13239,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13166,10 +13251,10 @@
         <v>38</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C55" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13178,7 +13263,7 @@
     </row>
     <row r="57" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="83" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -13212,10 +13297,10 @@
         <v>39</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C58" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13224,10 +13309,10 @@
         <v>40</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C59" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13236,10 +13321,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C60" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13248,10 +13333,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C61" s="86" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13260,7 +13345,7 @@
     </row>
     <row r="63" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="83" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -13294,10 +13379,10 @@
         <v>43</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C64" s="86" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13306,10 +13391,10 @@
         <v>44</v>
       </c>
       <c r="B65" s="85" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C65" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13318,10 +13403,10 @@
         <v>45</v>
       </c>
       <c r="B66" s="85" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C66" s="86" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14302,13 +14387,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="87" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
@@ -14328,10 +14413,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D3" s="91" t="n">
         <f aca="false">A4</f>
@@ -14346,14 +14431,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D4" s="91" t="n">
         <f aca="false">A4</f>
         <v>29</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F4" s="91" t="n">
         <f aca="false">A5</f>
@@ -14368,14 +14453,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D5" s="91" t="n">
         <f aca="false">A5</f>
         <v>49</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F5" s="91" t="n">
         <f aca="false">A6</f>
@@ -14390,14 +14475,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D6" s="91" t="n">
         <f aca="false">A6</f>
         <v>69</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F6" s="91" t="n">
         <f aca="false">A7</f>
@@ -14412,7 +14497,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D7" s="91" t="n">
         <f aca="false">A7</f>
